--- a/biology/Botanique/Lycopodium_annotinum/Lycopodium_annotinum.xlsx
+++ b/biology/Botanique/Lycopodium_annotinum/Lycopodium_annotinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lycopode à rameaux annuels, Lycopode à rameaux d'un an ou Lycopode à feuilles de genévrier (Lycopodium annotinum) est un lycopode de la famille des Lycopodiaceae. Ce lycopode forme d'importantes colonies et il est protégé sur une grande partie du territoire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Lycopode à feuilles de genévrier présente une tige rampante et longue avec quelques racines de place en place. Cette tige porte des rameaux espacés dont la taille varie entre 10 et 25 cm. Au cours de la croissance, les rameaux sont d'abord couchés puis redressés. Ils portent des feuilles courtes ( 0,5 cm), étroites, allongées, raides et piquantes. Elles ont une disposition alterne, souvent recourbées vers le bas, comme les feuilles de genévrier, mais s'en distingue par une fine denticulation sur les bords (chez Lycopodium clavatum, les feuilles sont prolongées par un poil blanc).
 Ce lycopode porte des épis sporangifères plus clairs au sommet des rameaux. Ils sont de forme cylindrique et sont isolés, ils portent des bractées jaunâtres à forme triangulaire, finement denticulées sur les bords et terminées par une sorte d'arête.
@@ -544,7 +558,9 @@
           <t>Milieu de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lycopode à feuilles de genévrier affectionne les sols pauvres et acides des tourbières mais aussi les sols argileux ou caillouteux. On le rencontre dans les forêts de conifères et les landes de montagne.
 On le retrouve souvent associé aux sphaignes.
@@ -576,7 +592,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lycopode à feuilles de genévrier est une plante de montagne que l'on peut rencontrer jusqu'à 2000 m d'altitude. Toutefois, ce lycopode est rare dans tous les massifs montagneux français : les Vosges, le Jura, les Alpes, le Massif central et les Pyrénées.
 C'est une espèce protégée en Auvergne, Provence-alpes-Côte d'Azur, Bourgogne et Lorraine.
@@ -608,7 +626,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lycopode est une plante qui est utile dans les maladies du foie[réf. souhaitée].
 </t>
@@ -641,10 +661,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Synonyme
-Lycopodium juniperinum
-Sous-espèces
-Lycopodium annotinum subsp. alpestre
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lycopodium juniperinum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lycopodium_annotinum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycopodium_annotinum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum subsp. alpestre
 Lycopodium annotinum subsp. annotinum</t>
         </is>
       </c>
